--- a/IvyDrive.xlsx
+++ b/IvyDrive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE09264B-13D9-4A19-A463-4FF307EB5EC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49BF911D-570E-44C3-9F8A-03BBFD2ED36E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13635" windowHeight="8100" xr2:uid="{A6879019-8FB6-43A8-9553-F51AD58B4F29}"/>
   </bookViews>
@@ -25,31 +25,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Lấy báo cáo hoạt động theo user.</t>
-  </si>
-  <si>
-    <t>Lấy báo cáo hoạt động của Team Drives.</t>
-  </si>
-  <si>
-    <t>Lấy báo cáo hoạt động của toàn bộ user trong domain.</t>
-  </si>
-  <si>
-    <t>Lấy báo cáo theo tên sự kiện. (ví dụ: tạo mới, sửa, upload, download, view …)</t>
-  </si>
-  <si>
-    <t>Trang Dashboard</t>
-  </si>
-  <si>
-    <t>Lọc sự kiện theo đối tượng (files, tài liệu) trên Gdrive.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>Lấy log hoạt động của toàn bộ user trong domain.</t>
+  </si>
+  <si>
+    <t>Lấy log hoạt động theo user.</t>
+  </si>
+  <si>
+    <t>Lấy log hoạt động theo Team Drives.</t>
+  </si>
+  <si>
+    <t>Lọc sự kiện theo loại Object (files, folders … ) trên Gdrive.</t>
+  </si>
+  <si>
+    <t>Tương tác với các Objects (folder, files…) trên Google Drive</t>
+  </si>
+  <si>
+    <t>Trang hiển thị hệ thống thư mục, files…</t>
+  </si>
+  <si>
+    <t>Phần Theo dõi hoạt động của Users trên Google Drive</t>
+  </si>
+  <si>
+    <t>Trang Dashboard (hiển thị tổng quan các muc: 1,2,3,4,5).</t>
+  </si>
+  <si>
+    <t>Phân loại log theo tên sự kiện (ví dụ: tạo mới, sửa, upload, download, view …).</t>
+  </si>
+  <si>
+    <t>Phân quyền thư mục.</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại thư mục &amp; tạo quyền riêng biệt cho từng loại: Secret Folder, Closed Folder, Public Folder. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Secret Folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: có thể xem(view) nhưng ko có quyền download.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Closed Folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: có thể download, các hoạt động đều được giám sát, ghi lại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public Folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: có thể share và public.</t>
+    </r>
+  </si>
+  <si>
+    <t>Phân quyền, Quản lý User trên hệ thống</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống phân quyền</t>
+  </si>
+  <si>
+    <t>Trang quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Trang phân quyền trên hệ thống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +159,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -89,14 +219,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,66 +604,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7736AF-7F44-46E5-B91B-4538B573DEC3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/IvyDrive.xlsx
+++ b/IvyDrive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49BF911D-570E-44C3-9F8A-03BBFD2ED36E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C702BBD-9E47-4CFA-A55F-5956E6561742}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13635" windowHeight="8100" xr2:uid="{A6879019-8FB6-43A8-9553-F51AD58B4F29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Lấy log hoạt động của toàn bộ user trong domain.</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Phần Theo dõi hoạt động của Users trên Google Drive</t>
   </si>
   <si>
-    <t>Trang Dashboard (hiển thị tổng quan các muc: 1,2,3,4,5).</t>
-  </si>
-  <si>
     <t>Phân loại log theo tên sự kiện (ví dụ: tạo mới, sửa, upload, download, view …).</t>
-  </si>
-  <si>
-    <t>Phân quyền thư mục.</t>
   </si>
   <si>
     <t>STT</t>
@@ -141,10 +135,19 @@
     <t>Xây dựng hệ thống phân quyền</t>
   </si>
   <si>
-    <t>Trang quản lý tài khoản</t>
-  </si>
-  <si>
     <t>Trang phân quyền trên hệ thống</t>
+  </si>
+  <si>
+    <t>Trang Dashboard (hiển thị tổng quan các mục: 1,2,3,4,5).</t>
+  </si>
+  <si>
+    <t>Trang cài đặt các thông số cần thiết cho hệ thống.</t>
+  </si>
+  <si>
+    <t>Trang quản lý tài khoản.</t>
+  </si>
+  <si>
+    <t>Phân quyền thư mục trên GDrive.</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -277,10 +280,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,7 +290,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,31 +608,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7736AF-7F44-46E5-B91B-4538B573DEC3}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="90" customWidth="1"/>
     <col min="3" max="3" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,13 +691,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,40 +731,48 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
     </row>
